--- a/Applications/CppVsJava.xlsx
+++ b/Applications/CppVsJava.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aksharkashyap/Documents/VisualStudio/Applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD9210-0776-7647-A5D7-0D22732D015D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E7916-94DF-EA43-90C1-DCA7D8D66C25}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F969FB9A-80C8-6E44-B2ED-398EEA704A26}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>C++</t>
   </si>
@@ -60,9 +60,6 @@
     <t>iterator</t>
   </si>
   <si>
-    <t>array sort</t>
-  </si>
-  <si>
     <t>array value fill</t>
   </si>
   <si>
@@ -75,19 +72,94 @@
     <t>string deep copy</t>
   </si>
   <si>
-    <t>stack - push</t>
-  </si>
-  <si>
-    <t>stack - pop</t>
-  </si>
-  <si>
-    <t>stack - peek</t>
-  </si>
-  <si>
-    <t>stack - size</t>
-  </si>
-  <si>
-    <t>stack - empty</t>
+    <t>length()</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Arrays.sort(arr)</t>
+  </si>
+  <si>
+    <t>Arrays.fill(arr,val)</t>
+  </si>
+  <si>
+    <t>int[] arr = new int[size]</t>
+  </si>
+  <si>
+    <t>Arrays.copyOf(arr,arr.length)</t>
+  </si>
+  <si>
+    <t>String clonestr = new String(str)</t>
+  </si>
+  <si>
+    <t>Stack&lt;Integer&gt; stack = new Stack&lt;&gt;()</t>
+  </si>
+  <si>
+    <t>Iterator&lt;Integer&gt; it = list.iterator(); while(it.hashNext()) print(it.next())</t>
+  </si>
+  <si>
+    <t>length(), size()</t>
+  </si>
+  <si>
+    <t>sizeof(arr,arr[0])</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>stack&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>priority_queue</t>
+  </si>
+  <si>
+    <t>treeset</t>
+  </si>
+  <si>
+    <t>linked hashet</t>
+  </si>
+  <si>
+    <t>linked hashmap</t>
+  </si>
+  <si>
+    <t>treemap(red - black tree)</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>sort(arr, arr+arr.length())</t>
+  </si>
+  <si>
+    <t>array sort - asc</t>
+  </si>
+  <si>
+    <t>array sort - desc</t>
+  </si>
+  <si>
+    <t>list sort - asc</t>
+  </si>
+  <si>
+    <t>list sort - desc</t>
+  </si>
+  <si>
+    <t>list sort - custom</t>
+  </si>
+  <si>
+    <t>no function for array for premitive type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">array sort - custom </t>
+  </si>
+  <si>
+    <t>array(obj) - asc</t>
+  </si>
+  <si>
+    <t>array(obj) - desc</t>
+  </si>
+  <si>
+    <t>array(obj) - custom</t>
   </si>
 </sst>
 </file>
@@ -157,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -167,6 +239,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D66A37-AFFE-B447-87FD-2E5561B6347C}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,225 +586,323 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
